--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1001.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1001.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.247753560539347</v>
+        <v>1.586902141571045</v>
       </c>
       <c r="B1">
-        <v>2.626674460082268</v>
+        <v>1.682878851890564</v>
       </c>
       <c r="C1">
-        <v>4.71457001583398</v>
+        <v>1.733575344085693</v>
       </c>
       <c r="D1">
-        <v>2.200848130530467</v>
+        <v>2.305009603500366</v>
       </c>
       <c r="E1">
-        <v>0.9536868285966765</v>
+        <v>3.355896949768066</v>
       </c>
     </row>
   </sheetData>
